--- a/게임잼시스템V1.0.0.xlsx
+++ b/게임잼시스템V1.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\LucidGarden_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C024C5-3CB7-4D6E-8FCE-8342FCC2A3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7CEB1-10D6-4F58-9C67-B45036DC00D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615B9377-502F-44FE-9D14-AEBB068F57FE}"/>
   </bookViews>
@@ -152,6 +152,7 @@
 ∙ 행복 지수에 따라 농장의 외형이 변경된다
 ∙ 행복 지수를 Max를 만드는 것이 게임의 목표이다
 ∙ 꿈의 조각과 행복 지수는 int로 출력되고 세자리 마다 , 를 출력한다
+∙ 꿈의 조각과 행복 지수 값은 우측에서부터 출력
 </t>
   </si>
 </sst>
@@ -364,6 +365,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -374,9 +378,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3126,10 +3127,1151 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619127</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED587255-020C-4342-BB51-4A22B41EBF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619627" y="3489193"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590552</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE9EA8B-C297-427F-ADA7-C0A02EC0A1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276852" y="3489193"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581027</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0047D89-664A-441C-9C46-FC8AFF84BEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953127" y="3489193"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FB3FAC-7C9A-4392-94C1-A750FEA267DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619877" y="3498718"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47521894-8E66-40D2-90A6-9390AD0CE5A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286627" y="3498718"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682BA878-2DB9-48F7-82B9-6D0C6918FE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="2876550"/>
+          <a:ext cx="2457450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>퀵슬롯 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583C33C0-7F5F-D4C4-29DE-5A8AF2315C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="914400"/>
+          <a:ext cx="2105025" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59C489F-7FF2-4698-81C3-C02F774C7577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1485900"/>
+          <a:ext cx="2105025" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC391A7-AE68-45DE-9183-09C615FDC27C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="800100"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C46965E-8A73-4F60-98FB-6F35A6931395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="1371600"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194DFF35-E55D-4C73-BDCA-BDE913389FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="781050"/>
+          <a:ext cx="581024" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75822FC-E801-4B47-9C7B-4486C0100260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="790575"/>
+          <a:ext cx="1943099" cy="549408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C19ACC-3CDA-4606-AFA1-67BE047D7BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="647700"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C281DDB-F07B-44F0-825F-DB49499DFF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="647700"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1231FEF4-93EC-46DF-AE06-E8708EC49B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="2200275"/>
+          <a:ext cx="2457450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>재화 리소스 출력 위치</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCBC614-015D-440E-8FD3-59C5D7660679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="2838450"/>
+          <a:ext cx="2457450" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[2]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>재화 값 출력</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3183,10 +4325,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4915,18 +6053,18 @@
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -4945,18 +6083,18 @@
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -4975,18 +6113,18 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -5005,18 +6143,18 @@
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -5035,18 +6173,18 @@
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -5065,18 +6203,18 @@
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -5095,18 +6233,18 @@
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -5125,18 +6263,18 @@
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -5155,18 +6293,18 @@
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -5187,18 +6325,18 @@
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5217,18 +6355,18 @@
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -5247,18 +6385,18 @@
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5277,18 +6415,18 @@
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -5307,18 +6445,18 @@
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -5337,18 +6475,18 @@
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -5367,18 +6505,18 @@
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -5397,18 +6535,18 @@
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -5427,18 +6565,18 @@
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -5456,19 +6594,19 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -7947,18 +9085,18 @@
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -7977,18 +9115,18 @@
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -8007,18 +9145,18 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -8037,18 +9175,18 @@
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -8067,18 +9205,18 @@
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -8097,18 +9235,18 @@
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -8127,18 +9265,18 @@
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -8157,18 +9295,18 @@
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -8187,18 +9325,18 @@
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -8219,18 +9357,18 @@
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -8249,18 +9387,18 @@
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -8279,18 +9417,18 @@
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -8309,18 +9447,18 @@
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -8339,18 +9477,18 @@
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -8369,18 +9507,18 @@
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -8399,18 +9537,18 @@
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -8429,18 +9567,18 @@
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -8459,18 +9597,18 @@
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -8488,19 +9626,19 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -10844,7 +11982,7 @@
   <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10979,18 +12117,18 @@
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -11009,18 +12147,18 @@
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -11039,18 +12177,18 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -11069,18 +12207,18 @@
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -11099,18 +12237,18 @@
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -11129,18 +12267,18 @@
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -11159,18 +12297,18 @@
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -11189,18 +12327,18 @@
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -11219,18 +12357,18 @@
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -11251,18 +12389,18 @@
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -11281,18 +12419,18 @@
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -11311,18 +12449,18 @@
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -11341,18 +12479,18 @@
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -11371,18 +12509,18 @@
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -11401,18 +12539,18 @@
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -11431,18 +12569,18 @@
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -11461,18 +12599,18 @@
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -11491,18 +12629,18 @@
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -11520,19 +12658,19 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -13876,7 +15014,7 @@
   <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:N44"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14011,18 +15149,18 @@
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -14041,18 +15179,18 @@
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -14071,18 +15209,18 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -14101,18 +15239,18 @@
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -14131,18 +15269,18 @@
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -14161,18 +15299,18 @@
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -14191,18 +15329,18 @@
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -14221,18 +15359,18 @@
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -14251,18 +15389,18 @@
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -14283,18 +15421,18 @@
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -14313,18 +15451,18 @@
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -14343,18 +15481,18 @@
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -14373,18 +15511,18 @@
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -14403,18 +15541,18 @@
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -14433,18 +15571,18 @@
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -14463,18 +15601,18 @@
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -14493,18 +15631,18 @@
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -14523,18 +15661,18 @@
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -14552,19 +15690,19 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -16899,6 +18037,7 @@
     <mergeCell ref="B24:N44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17042,18 +18181,18 @@
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -17072,18 +18211,18 @@
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -17102,18 +18241,18 @@
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -17132,18 +18271,18 @@
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -17162,18 +18301,18 @@
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -17192,18 +18331,18 @@
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -17222,18 +18361,18 @@
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -17252,18 +18391,18 @@
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -17282,18 +18421,18 @@
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -17314,18 +18453,18 @@
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -17344,18 +18483,18 @@
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -17374,18 +18513,18 @@
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -17404,18 +18543,18 @@
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -17434,18 +18573,18 @@
     <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -17464,18 +18603,18 @@
     <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -17494,18 +18633,18 @@
     <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -17524,18 +18663,18 @@
     <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -17554,18 +18693,18 @@
     <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -17583,19 +18722,19 @@
     </row>
     <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
